--- a/data/ventas.xlsx
+++ b/data/ventas.xlsx
@@ -397,13 +397,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID Venta</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Fecha</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Hora</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Vendedor</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Productos</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Total</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Personas</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>V-1769891068199</v>
+      </c>
+      <c r="B2" t="str">
+        <v>31/1/2026</v>
+      </c>
+      <c r="C2" t="str">
+        <v>03:24 p. m.</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Martha</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Aguardiente Amarillo Botella (x1), Aguardiente Amarillo Media (x1), Ron 5 años Botella (x1), Cerveza Corona (x1)</v>
+      </c>
+      <c r="F2">
+        <v>274000</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/ventas.xlsx
+++ b/data/ventas.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,30 +427,99 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>V-1769891068199</v>
+        <v>V-1769915744936</v>
       </c>
       <c r="B2" t="str">
         <v>31/1/2026</v>
       </c>
       <c r="C2" t="str">
-        <v>03:24 p. m.</v>
+        <v>10:15 p. m.</v>
       </c>
       <c r="D2" t="str">
         <v>Martha</v>
       </c>
       <c r="E2" t="str">
-        <v>Aguardiente Amarillo Botella (x1), Aguardiente Amarillo Media (x1), Ron 5 años Botella (x1), Cerveza Corona (x1)</v>
+        <v>Aguardiente Amarillo Botella (x1)</v>
       </c>
       <c r="F2">
-        <v>274000</v>
+        <v>108000</v>
       </c>
       <c r="G2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>V-1769915748653</v>
+      </c>
+      <c r="B3" t="str">
+        <v>31/1/2026</v>
+      </c>
+      <c r="C3" t="str">
+        <v>10:15 p. m.</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Martha</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Aguardiente Amarillo Botella (x1)</v>
+      </c>
+      <c r="F3">
+        <v>108000</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>V-1769915756171</v>
+      </c>
+      <c r="B4" t="str">
+        <v>31/1/2026</v>
+      </c>
+      <c r="C4" t="str">
+        <v>10:15 p. m.</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Martha</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Cerveza Corona (x4)</v>
+      </c>
+      <c r="F4">
+        <v>40000</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>V-1769915763343</v>
+      </c>
+      <c r="B5" t="str">
+        <v>31/1/2026</v>
+      </c>
+      <c r="C5" t="str">
+        <v>10:16 p. m.</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Martha</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Aguardiente Amarillo Botella (x1)</v>
+      </c>
+      <c r="F5">
+        <v>108000</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/ventas.xlsx
+++ b/data/ventas.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,16 +496,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>V-1769915763343</v>
+        <v>V-1770158313316</v>
       </c>
       <c r="B5" t="str">
-        <v>31/1/2026</v>
+        <v>3/2/2026</v>
       </c>
       <c r="C5" t="str">
-        <v>10:16 p. m.</v>
+        <v>05:38 p. m.</v>
       </c>
       <c r="D5" t="str">
-        <v>Martha</v>
+        <v>Laura</v>
       </c>
       <c r="E5" t="str">
         <v>Aguardiente Amarillo Botella (x1)</v>
@@ -514,12 +514,196 @@
         <v>108000</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>V-1770158671967</v>
+      </c>
+      <c r="B6" t="str">
+        <v>3/2/2026</v>
+      </c>
+      <c r="C6" t="str">
+        <v>05:44 p. m.</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Martha</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Aguardiente Amarillo Botella (x1)</v>
+      </c>
+      <c r="F6">
+        <v>108000</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>V-1770158676232</v>
+      </c>
+      <c r="B7" t="str">
+        <v>3/2/2026</v>
+      </c>
+      <c r="C7" t="str">
+        <v>05:44 p. m.</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Martha</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Cerveza Corona (x1)</v>
+      </c>
+      <c r="F7">
+        <v>10000</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>V-1770158681844</v>
+      </c>
+      <c r="B8" t="str">
+        <v>3/2/2026</v>
+      </c>
+      <c r="C8" t="str">
+        <v>05:44 p. m.</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Martha</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Ron viejo de caldas 5 años botella (x1)</v>
+      </c>
+      <c r="F8">
+        <v>78000</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>V-1770158798674</v>
+      </c>
+      <c r="B9" t="str">
+        <v>3/2/2026</v>
+      </c>
+      <c r="C9" t="str">
+        <v>05:46 p. m.</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Martha</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Cerveza Corona (x1)</v>
+      </c>
+      <c r="F9">
+        <v>10000</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>V-1770158814376</v>
+      </c>
+      <c r="B10" t="str">
+        <v>3/2/2026</v>
+      </c>
+      <c r="C10" t="str">
+        <v>05:46 p. m.</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Martha</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Aguardiente Amarillo Botella (x1), Cerveza Corona (x4)</v>
+      </c>
+      <c r="F10">
+        <v>148000</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>V-1770159088381</v>
+      </c>
+      <c r="B11" t="str">
+        <v>3/2/2026</v>
+      </c>
+      <c r="C11" t="str">
+        <v>05:51 p. m.</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Martha</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Cerveza Corona (x3)</v>
+      </c>
+      <c r="F11">
+        <v>30000</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>V-1770176781317</v>
+      </c>
+      <c r="B12" t="str">
+        <v>3/2/2026</v>
+      </c>
+      <c r="C12" t="str">
+        <v>10:46 p. m.</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Martha</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Cerveza Corona (x1), Aguardiente Amarillo Botella (x1)</v>
+      </c>
+      <c r="F12">
+        <v>118000</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>V-1770176957622</v>
+      </c>
+      <c r="B13" t="str">
+        <v>3/2/2026</v>
+      </c>
+      <c r="C13" t="str">
+        <v>10:49 p. m.</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Martha</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Ron viejo de caldas (5años) botella (x1), Cerveza Corona (x2)</v>
+      </c>
+      <c r="F13">
+        <v>152000</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/ventas.xlsx
+++ b/data/ventas.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -701,9 +701,78 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>V-1770248136892</v>
+      </c>
+      <c r="B14" t="str">
+        <v>4/2/2026</v>
+      </c>
+      <c r="C14" t="str">
+        <v>06:35 p. m.</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Martha</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Ron viejo de caldas (5años) botella (x1)</v>
+      </c>
+      <c r="F14">
+        <v>132000</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>V-1770248209396</v>
+      </c>
+      <c r="B15" t="str">
+        <v>4/2/2026</v>
+      </c>
+      <c r="C15" t="str">
+        <v>06:36 p. m.</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Martha</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Cerveza Corona (x4), Ron viejo de caldas (5años) botella (x1)</v>
+      </c>
+      <c r="F15">
+        <v>172000</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>V-1770248819360</v>
+      </c>
+      <c r="B16" t="str">
+        <v>4/2/2026</v>
+      </c>
+      <c r="C16" t="str">
+        <v>06:46 p. m.</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Ron viejo de caldas (5años) botella (x1), Cerveza Corona (x3), Aguardiente Amarillo Botella (x3)</v>
+      </c>
+      <c r="F16">
+        <v>486000</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/ventas.xlsx
+++ b/data/ventas.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,68 +427,68 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>V-1769915744936</v>
+        <v>V-1770508238446</v>
       </c>
       <c r="B2" t="str">
-        <v>31/1/2026</v>
+        <v>7/2/2026</v>
       </c>
       <c r="C2" t="str">
-        <v>10:15 p. m.</v>
+        <v>06:50 p. m.</v>
       </c>
       <c r="D2" t="str">
-        <v>Martha</v>
+        <v>Laura</v>
       </c>
       <c r="E2" t="str">
-        <v>Aguardiente Amarillo Botella (x1)</v>
+        <v>Cerveza Corona (x1)</v>
       </c>
       <c r="F2">
-        <v>108000</v>
+        <v>10000</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>V-1769915748653</v>
+        <v>V-1770508277150</v>
       </c>
       <c r="B3" t="str">
-        <v>31/1/2026</v>
+        <v>7/2/2026</v>
       </c>
       <c r="C3" t="str">
-        <v>10:15 p. m.</v>
+        <v>06:51 p. m.</v>
       </c>
       <c r="D3" t="str">
-        <v>Martha</v>
+        <v>Laura</v>
       </c>
       <c r="E3" t="str">
-        <v>Aguardiente Amarillo Botella (x1)</v>
+        <v>Cerveza Corona (x1)</v>
       </c>
       <c r="F3">
-        <v>108000</v>
+        <v>10000</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>V-1769915756171</v>
+        <v>V-1770509831306</v>
       </c>
       <c r="B4" t="str">
-        <v>31/1/2026</v>
+        <v>7/2/2026</v>
       </c>
       <c r="C4" t="str">
-        <v>10:15 p. m.</v>
+        <v>07:17 p. m.</v>
       </c>
       <c r="D4" t="str">
-        <v>Martha</v>
+        <v>Laura</v>
       </c>
       <c r="E4" t="str">
-        <v>Cerveza Corona (x4)</v>
+        <v>Aguardiente Amarillo Media (x1)</v>
       </c>
       <c r="F4">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -496,22 +496,22 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>V-1770158313316</v>
+        <v>V-1770510307354</v>
       </c>
       <c r="B5" t="str">
-        <v>3/2/2026</v>
+        <v>7/2/2026</v>
       </c>
       <c r="C5" t="str">
-        <v>05:38 p. m.</v>
+        <v>07:25 p. m.</v>
       </c>
       <c r="D5" t="str">
         <v>Laura</v>
       </c>
       <c r="E5" t="str">
-        <v>Aguardiente Amarillo Botella (x1)</v>
+        <v>Cerveza Corona (x8)</v>
       </c>
       <c r="F5">
-        <v>108000</v>
+        <v>80000</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -519,39 +519,39 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>V-1770158671967</v>
+        <v>V-1770510578344</v>
       </c>
       <c r="B6" t="str">
-        <v>3/2/2026</v>
+        <v>7/2/2026</v>
       </c>
       <c r="C6" t="str">
-        <v>05:44 p. m.</v>
+        <v>07:29 p. m.</v>
       </c>
       <c r="D6" t="str">
-        <v>Martha</v>
+        <v>Laura</v>
       </c>
       <c r="E6" t="str">
-        <v>Aguardiente Amarillo Botella (x1)</v>
+        <v>Cerveza Corona (x1), Ron viejo de caldas (5años) botella (x1), Aguardiente Amarillo Media (x1)</v>
       </c>
       <c r="F6">
-        <v>108000</v>
+        <v>212000</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>V-1770158676232</v>
+        <v>V-1770511453742</v>
       </c>
       <c r="B7" t="str">
-        <v>3/2/2026</v>
+        <v>7/2/2026</v>
       </c>
       <c r="C7" t="str">
-        <v>05:44 p. m.</v>
+        <v>07:44 p. m.</v>
       </c>
       <c r="D7" t="str">
-        <v>Martha</v>
+        <v>Laura</v>
       </c>
       <c r="E7" t="str">
         <v>Cerveza Corona (x1)</v>
@@ -560,27 +560,27 @@
         <v>10000</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>V-1770158681844</v>
+        <v>V-1770511491261</v>
       </c>
       <c r="B8" t="str">
-        <v>3/2/2026</v>
+        <v>7/2/2026</v>
       </c>
       <c r="C8" t="str">
-        <v>05:44 p. m.</v>
+        <v>07:44 p. m.</v>
       </c>
       <c r="D8" t="str">
-        <v>Martha</v>
+        <v>Laura</v>
       </c>
       <c r="E8" t="str">
-        <v>Ron viejo de caldas 5 años botella (x1)</v>
+        <v>Cerveza Corona (x1)</v>
       </c>
       <c r="F8">
-        <v>78000</v>
+        <v>10000</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -588,91 +588,91 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>V-1770158798674</v>
+        <v>V-1770511516090</v>
       </c>
       <c r="B9" t="str">
-        <v>3/2/2026</v>
+        <v>7/2/2026</v>
       </c>
       <c r="C9" t="str">
-        <v>05:46 p. m.</v>
+        <v>07:45 p. m.</v>
       </c>
       <c r="D9" t="str">
-        <v>Martha</v>
+        <v>Laura</v>
       </c>
       <c r="E9" t="str">
-        <v>Cerveza Corona (x1)</v>
+        <v>Cerveza Corona (x6)</v>
       </c>
       <c r="F9">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>V-1770158814376</v>
+        <v>V-1770511548532</v>
       </c>
       <c r="B10" t="str">
-        <v>3/2/2026</v>
+        <v>7/2/2026</v>
       </c>
       <c r="C10" t="str">
-        <v>05:46 p. m.</v>
+        <v>07:45 p. m.</v>
       </c>
       <c r="D10" t="str">
-        <v>Martha</v>
+        <v>Laura</v>
       </c>
       <c r="E10" t="str">
-        <v>Aguardiente Amarillo Botella (x1), Cerveza Corona (x4)</v>
+        <v>Cerveza Corona (x3)</v>
       </c>
       <c r="F10">
-        <v>148000</v>
+        <v>30000</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>V-1770159088381</v>
+        <v>V-1770512051170</v>
       </c>
       <c r="B11" t="str">
-        <v>3/2/2026</v>
+        <v>7/2/2026</v>
       </c>
       <c r="C11" t="str">
-        <v>05:51 p. m.</v>
+        <v>07:54 p. m.</v>
       </c>
       <c r="D11" t="str">
-        <v>Martha</v>
+        <v>Laura</v>
       </c>
       <c r="E11" t="str">
-        <v>Cerveza Corona (x3)</v>
+        <v>Cerveza Corona (x1)</v>
       </c>
       <c r="F11">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>V-1770176781317</v>
+        <v>V-1770512294788</v>
       </c>
       <c r="B12" t="str">
-        <v>3/2/2026</v>
+        <v>7/2/2026</v>
       </c>
       <c r="C12" t="str">
-        <v>10:46 p. m.</v>
+        <v>07:58 p. m.</v>
       </c>
       <c r="D12" t="str">
-        <v>Martha</v>
+        <v>Laura</v>
       </c>
       <c r="E12" t="str">
-        <v>Cerveza Corona (x1), Aguardiente Amarillo Botella (x1)</v>
+        <v>Ron viejo de caldas (5años) botella (x1), Aguardiente Amarillo Media (x1), Cerveza Corona (x1)</v>
       </c>
       <c r="F12">
-        <v>118000</v>
+        <v>212000</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -680,99 +680,76 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>V-1770176957622</v>
+        <v>V-1770513802493</v>
       </c>
       <c r="B13" t="str">
-        <v>3/2/2026</v>
+        <v>7/2/2026</v>
       </c>
       <c r="C13" t="str">
-        <v>10:49 p. m.</v>
+        <v>08:23 p. m.</v>
       </c>
       <c r="D13" t="str">
-        <v>Martha</v>
+        <v>Laura</v>
       </c>
       <c r="E13" t="str">
-        <v>Ron viejo de caldas (5años) botella (x1), Cerveza Corona (x2)</v>
+        <v>Cerveza Corona (x1), Ron viejo de caldas (5años) botella (x1)</v>
       </c>
       <c r="F13">
-        <v>152000</v>
+        <v>142000</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>V-1770248136892</v>
+        <v>V-1770519457303</v>
       </c>
       <c r="B14" t="str">
-        <v>4/2/2026</v>
+        <v>7/2/2026</v>
       </c>
       <c r="C14" t="str">
-        <v>06:35 p. m.</v>
+        <v>09:57 p. m.</v>
       </c>
       <c r="D14" t="str">
-        <v>Martha</v>
+        <v>Laura</v>
       </c>
       <c r="E14" t="str">
-        <v>Ron viejo de caldas (5años) botella (x1)</v>
+        <v>Cerveza Corona (x1), Aguardiente Amarillo Media (x1), Ron viejo de caldas (5años) botella (x1)</v>
       </c>
       <c r="F14">
-        <v>132000</v>
+        <v>212000</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>V-1770248209396</v>
+        <v>V-1770519511759</v>
       </c>
       <c r="B15" t="str">
-        <v>4/2/2026</v>
+        <v>7/2/2026</v>
       </c>
       <c r="C15" t="str">
-        <v>06:36 p. m.</v>
+        <v>09:58 p. m.</v>
       </c>
       <c r="D15" t="str">
-        <v>Martha</v>
+        <v>Laura</v>
       </c>
       <c r="E15" t="str">
-        <v>Cerveza Corona (x4), Ron viejo de caldas (5años) botella (x1)</v>
+        <v>Cerveza Corona (x1), Ron viejo de caldas (5años) botella (x1), Aguardiente Amarillo Media (x1)</v>
       </c>
       <c r="F15">
-        <v>172000</v>
+        <v>212000</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>V-1770248819360</v>
-      </c>
-      <c r="B16" t="str">
-        <v>4/2/2026</v>
-      </c>
-      <c r="C16" t="str">
-        <v>06:46 p. m.</v>
-      </c>
-      <c r="D16" t="str">
-        <v>Laura</v>
-      </c>
-      <c r="E16" t="str">
-        <v>Ron viejo de caldas (5años) botella (x1), Cerveza Corona (x3), Aguardiente Amarillo Botella (x3)</v>
-      </c>
-      <c r="F16">
-        <v>486000</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/ventas.xlsx
+++ b/data/ventas.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -747,9 +747,308 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>V-1770523162330</v>
+      </c>
+      <c r="B16" t="str">
+        <v>7/2/2026</v>
+      </c>
+      <c r="C16" t="str">
+        <v>10:59 p. m.</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Stiven</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Cerveza Corona (x1), Ron viejo de caldas (5años) botella (x1), Aguardiente Amarillo Media (x1), Aguardiente Amarillo Botella (x1)</v>
+      </c>
+      <c r="F16">
+        <v>320000</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>V-1770604719876</v>
+      </c>
+      <c r="B17" t="str">
+        <v>8/2/2026</v>
+      </c>
+      <c r="C17" t="str">
+        <v>09:38 p. m.</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Ron viejo de caldas (5años) botella (x1)</v>
+      </c>
+      <c r="F17">
+        <v>132000</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>V-1770604776176</v>
+      </c>
+      <c r="B18" t="str">
+        <v>8/2/2026</v>
+      </c>
+      <c r="C18" t="str">
+        <v>09:39 p. m.</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Cerveza Corona (x4)</v>
+      </c>
+      <c r="F18">
+        <v>40000</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>V-1770604832152</v>
+      </c>
+      <c r="B19" t="str">
+        <v>8/2/2026</v>
+      </c>
+      <c r="C19" t="str">
+        <v>09:40 p. m.</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Ron viejo de caldas (5años) botella (x1), Aguardiente Amarillo Botella (x1)</v>
+      </c>
+      <c r="F19">
+        <v>240000</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>V-1770604845907</v>
+      </c>
+      <c r="B20" t="str">
+        <v>8/2/2026</v>
+      </c>
+      <c r="C20" t="str">
+        <v>09:40 p. m.</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Cerveza Corona (x1)</v>
+      </c>
+      <c r="F20">
+        <v>10000</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>V-1770604879912</v>
+      </c>
+      <c r="B21" t="str">
+        <v>8/2/2026</v>
+      </c>
+      <c r="C21" t="str">
+        <v>09:41 p. m.</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Cerveza Corona (x3)</v>
+      </c>
+      <c r="F21">
+        <v>30000</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>V-1770604924749</v>
+      </c>
+      <c r="B22" t="str">
+        <v>8/2/2026</v>
+      </c>
+      <c r="C22" t="str">
+        <v>09:42 p. m.</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Ron viejo de caldas (5años) botella (x1), Cerveza Corona (x1)</v>
+      </c>
+      <c r="F22">
+        <v>142000</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>V-1770604965224</v>
+      </c>
+      <c r="B23" t="str">
+        <v>8/2/2026</v>
+      </c>
+      <c r="C23" t="str">
+        <v>09:42 p. m.</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Cerveza Corona (x10)</v>
+      </c>
+      <c r="F23">
+        <v>100000</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>V-1770605455118</v>
+      </c>
+      <c r="B24" t="str">
+        <v>8/2/2026</v>
+      </c>
+      <c r="C24" t="str">
+        <v>09:50 p. m.</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Aguardiente Amarillo Botella (x1)</v>
+      </c>
+      <c r="F24">
+        <v>108000</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>V-1770605530870</v>
+      </c>
+      <c r="B25" t="str">
+        <v>8/2/2026</v>
+      </c>
+      <c r="C25" t="str">
+        <v>09:52 p. m.</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Martha</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Cerveza Corona (x1), Ron viejo de caldas (5años) botella (x1)</v>
+      </c>
+      <c r="F25">
+        <v>142000</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>V-1770763614972</v>
+      </c>
+      <c r="B26" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="C26" t="str">
+        <v>05:46 p. m.</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Ron viejo de caldas (5años) botella (x1)</v>
+      </c>
+      <c r="F26">
+        <v>135000</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>V-1770783380241</v>
+      </c>
+      <c r="B27" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="C27" t="str">
+        <v>11:16 p. m.</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Aguardiente Amarillo Media (x1)</v>
+      </c>
+      <c r="F27">
+        <v>70000</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>V-1770784241842</v>
+      </c>
+      <c r="B28" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="C28" t="str">
+        <v>11:30 p. m.</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Martha</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Aguardiente Amarillo Caja (x1)</v>
+      </c>
+      <c r="F28">
+        <v>122000</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G28"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/ventas.xlsx
+++ b/data/ventas.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1046,9 +1046,216 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>V-1770933831253</v>
+      </c>
+      <c r="B29" t="str">
+        <v>12/2/2026</v>
+      </c>
+      <c r="C29" t="str">
+        <v>05:03 p. m.</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Cerveza Poker (x3)</v>
+      </c>
+      <c r="F29">
+        <v>27000</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>V-1770940838425</v>
+      </c>
+      <c r="B30" t="str">
+        <v>12/2/2026</v>
+      </c>
+      <c r="C30" t="str">
+        <v>07:00 p. m.</v>
+      </c>
+      <c r="D30" t="str">
+        <v>{"nombre":"Stiven","rol":"ADMIN"}</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Aguardiente Ligth Caja (x2), Aguardiente Amarillo Botella (x1)</v>
+      </c>
+      <c r="F30">
+        <v>328000</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>V-1770941236921</v>
+      </c>
+      <c r="B31" t="str">
+        <v>12/2/2026</v>
+      </c>
+      <c r="C31" t="str">
+        <v>07:07 p. m.</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Aguardiente Amarillo Caja (x1)</v>
+      </c>
+      <c r="F31">
+        <v>122000</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>V-1770947115092</v>
+      </c>
+      <c r="B32" t="str">
+        <v>12/2/2026</v>
+      </c>
+      <c r="C32" t="str">
+        <v>08:45 p. m.</v>
+      </c>
+      <c r="D32" t="str">
+        <v>{"nombre":"Stiven","rol":"ADMIN"}</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Aguardiente Amarillo Caja (x1)</v>
+      </c>
+      <c r="F32">
+        <v>122000</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>V-1770947176403</v>
+      </c>
+      <c r="B33" t="str">
+        <v>12/2/2026</v>
+      </c>
+      <c r="C33" t="str">
+        <v>08:46 p. m.</v>
+      </c>
+      <c r="D33" t="str">
+        <v>{"nombre":"Stiven","rol":"ADMIN"}</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Aguardiente Amarillo Caja (x1)</v>
+      </c>
+      <c r="F33">
+        <v>122000</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>V-1770947980175</v>
+      </c>
+      <c r="B34" t="str">
+        <v>12/2/2026</v>
+      </c>
+      <c r="C34" t="str">
+        <v>08:59 p. m.</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Stiven</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Aguardiente Ligth Caja (x1), Aguardiente Amarillo Botella (x1), Aguardiente Amarillo Media (x1)</v>
+      </c>
+      <c r="F34">
+        <v>288000</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>V-1770948065858</v>
+      </c>
+      <c r="B35" t="str">
+        <v>12/2/2026</v>
+      </c>
+      <c r="C35" t="str">
+        <v>09:01 p. m.</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Aguardiente Amarillo Media (x1)</v>
+      </c>
+      <c r="F35">
+        <v>70000</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>V-1770948134526</v>
+      </c>
+      <c r="B36" t="str">
+        <v>12/2/2026</v>
+      </c>
+      <c r="C36" t="str">
+        <v>09:02 p. m.</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Aguardiente Amarillo Caja (x1)</v>
+      </c>
+      <c r="F36">
+        <v>122000</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>V-1770950032583</v>
+      </c>
+      <c r="B37" t="str">
+        <v>12/2/2026</v>
+      </c>
+      <c r="C37" t="str">
+        <v>09:33 p. m.</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Aguardiente Amarillo Caja (x1)</v>
+      </c>
+      <c r="F37">
+        <v>122000</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G37"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/ventas.xlsx
+++ b/data/ventas.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1253,9 +1253,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>V-1770952993547</v>
+      </c>
+      <c r="B38" t="str">
+        <v>12/2/2026</v>
+      </c>
+      <c r="C38" t="str">
+        <v>10:23 p. m.</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Stiven</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Aguardiente Amarillo Caja (x1)</v>
+      </c>
+      <c r="F38">
+        <v>122000</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G37"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G38"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/ventas.xlsx
+++ b/data/ventas.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1276,9 +1276,4057 @@
         <v>0</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>V-1771023487204</v>
+      </c>
+      <c r="B39" t="str">
+        <v>13/2/2026</v>
+      </c>
+      <c r="C39" t="str">
+        <v>10:58 p. m.</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Stiven</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Aguardiente Amarillo Caja (x1)</v>
+      </c>
+      <c r="F39">
+        <v>122000</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>V-1771023557931</v>
+      </c>
+      <c r="B40" t="str">
+        <v>13/2/2026</v>
+      </c>
+      <c r="C40" t="str">
+        <v>10:59 p. m.</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Stiven</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Aguardiente Amarillo Caja (x1)</v>
+      </c>
+      <c r="F40">
+        <v>122000</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>V-1771023847877</v>
+      </c>
+      <c r="B41" t="str">
+        <v>13/2/2026</v>
+      </c>
+      <c r="C41" t="str">
+        <v>11:04 p. m.</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Aguardiente Amarillo Media (x1), Aguardiente Ligth Caja (x1)</v>
+      </c>
+      <c r="F41">
+        <v>180000</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>V-1771024048038</v>
+      </c>
+      <c r="B42" t="str">
+        <v>13/2/2026</v>
+      </c>
+      <c r="C42" t="str">
+        <v>11:07 p. m.</v>
+      </c>
+      <c r="D42" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Cerveza Aguila Ligth (x2)</v>
+      </c>
+      <c r="F42">
+        <v>18000</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>V-1771024496876</v>
+      </c>
+      <c r="B43" t="str">
+        <v>13/2/2026</v>
+      </c>
+      <c r="C43" t="str">
+        <v>11:14 p. m.</v>
+      </c>
+      <c r="D43" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Cerveza Poker (x3)</v>
+      </c>
+      <c r="F43">
+        <v>27000</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>V-1771024890645</v>
+      </c>
+      <c r="B44" t="str">
+        <v>13/2/2026</v>
+      </c>
+      <c r="C44" t="str">
+        <v>11:21 p. m.</v>
+      </c>
+      <c r="D44" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F44">
+        <v>9000</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>V-1771025110567</v>
+      </c>
+      <c r="B45" t="str">
+        <v>13/2/2026</v>
+      </c>
+      <c r="C45" t="str">
+        <v>11:25 p. m.</v>
+      </c>
+      <c r="D45" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F45">
+        <v>10000</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>V-1771025728804</v>
+      </c>
+      <c r="B46" t="str">
+        <v>13/2/2026</v>
+      </c>
+      <c r="C46" t="str">
+        <v>11:35 p. m.</v>
+      </c>
+      <c r="D46" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Cerveza Aguila Ligth (x1), Cerveza Poker (x2)</v>
+      </c>
+      <c r="F46">
+        <v>30000</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>V-1771026386569</v>
+      </c>
+      <c r="B47" t="str">
+        <v>13/2/2026</v>
+      </c>
+      <c r="C47" t="str">
+        <v>11:46 p. m.</v>
+      </c>
+      <c r="D47" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Cerveza Aguila Ligth (x1)</v>
+      </c>
+      <c r="F47">
+        <v>10000</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>V-1771027242718</v>
+      </c>
+      <c r="B48" t="str">
+        <v>14/2/2026</v>
+      </c>
+      <c r="C48" t="str">
+        <v>12:00 a. m.</v>
+      </c>
+      <c r="D48" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Soda (x2)</v>
+      </c>
+      <c r="F48">
+        <v>10000</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>V-1771027378081</v>
+      </c>
+      <c r="B49" t="str">
+        <v>14/2/2026</v>
+      </c>
+      <c r="C49" t="str">
+        <v>12:02 a. m.</v>
+      </c>
+      <c r="D49" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Cerveza Poker (x3)</v>
+      </c>
+      <c r="F49">
+        <v>30000</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>V-1771028055532</v>
+      </c>
+      <c r="B50" t="str">
+        <v>14/2/2026</v>
+      </c>
+      <c r="C50" t="str">
+        <v>12:14 a. m.</v>
+      </c>
+      <c r="D50" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Cerveza Aguila Ligth (x2)</v>
+      </c>
+      <c r="F50">
+        <v>20000</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>V-1771030476670</v>
+      </c>
+      <c r="B51" t="str">
+        <v>14/2/2026</v>
+      </c>
+      <c r="C51" t="str">
+        <v>12:54 a. m.</v>
+      </c>
+      <c r="D51" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Aguardiente Amarillo Media (x1)</v>
+      </c>
+      <c r="F51">
+        <v>70000</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>V-1771030743316</v>
+      </c>
+      <c r="B52" t="str">
+        <v>14/2/2026</v>
+      </c>
+      <c r="C52" t="str">
+        <v>12:59 a. m.</v>
+      </c>
+      <c r="D52" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Ginger Canada Dry (x1)</v>
+      </c>
+      <c r="F52">
+        <v>5000</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>V-1771030884408</v>
+      </c>
+      <c r="B53" t="str">
+        <v>14/2/2026</v>
+      </c>
+      <c r="C53" t="str">
+        <v>01:01 a. m.</v>
+      </c>
+      <c r="D53" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Ron 5 años Media (x1)</v>
+      </c>
+      <c r="F53">
+        <v>78000</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>V-1771112164855</v>
+      </c>
+      <c r="B54" t="str">
+        <v>14/2/2026</v>
+      </c>
+      <c r="C54" t="str">
+        <v>11:36 p. m.</v>
+      </c>
+      <c r="D54" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Aguardiente Amarillo Media (x1)</v>
+      </c>
+      <c r="F54">
+        <v>70000</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>V-1771115190858</v>
+      </c>
+      <c r="B55" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C55" t="str">
+        <v>12:26 a. m.</v>
+      </c>
+      <c r="D55" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Aguardiente Amarillo Botella (x2)</v>
+      </c>
+      <c r="F55">
+        <v>216000</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>V-1771115300295</v>
+      </c>
+      <c r="B56" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C56" t="str">
+        <v>12:28 a. m.</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Aguardiente Amarillo Botella (x1)</v>
+      </c>
+      <c r="F56">
+        <v>108000</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>V-1771115710166</v>
+      </c>
+      <c r="B57" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C57" t="str">
+        <v>12:35 a. m.</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Ron 5 años Botella (x1)</v>
+      </c>
+      <c r="F57">
+        <v>132000</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>V-1771115958311</v>
+      </c>
+      <c r="B58" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C58" t="str">
+        <v>12:39 a. m.</v>
+      </c>
+      <c r="D58" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Aguardiente Cristal Caja (x1)</v>
+      </c>
+      <c r="F58">
+        <v>100000</v>
+      </c>
+      <c r="G58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>V-1771116182145</v>
+      </c>
+      <c r="B59" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C59" t="str">
+        <v>12:43 a. m.</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Soda (x1), Cerveza Aguila Ligth (x1)</v>
+      </c>
+      <c r="F59">
+        <v>15000</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>V-1771116273496</v>
+      </c>
+      <c r="B60" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C60" t="str">
+        <v>12:44 a. m.</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F60">
+        <v>10000</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>V-1771116400424</v>
+      </c>
+      <c r="B61" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C61" t="str">
+        <v>12:46 a. m.</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Ron Tradicional Media (x1), Ginger Canada Dry (x2), Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F61">
+        <v>134000</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>V-1771116633203</v>
+      </c>
+      <c r="B62" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C62" t="str">
+        <v>12:50 a. m.</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Aguardiente Cristal Media (x1)</v>
+      </c>
+      <c r="F62">
+        <v>54000</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>V-1771116834330</v>
+      </c>
+      <c r="B63" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C63" t="str">
+        <v>12:53 a. m.</v>
+      </c>
+      <c r="D63" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F63">
+        <v>10000</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>V-1771116919768</v>
+      </c>
+      <c r="B64" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C64" t="str">
+        <v>12:55 a. m.</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Cerveza Aguila Ligth (x1), Cerveza Club Colombia (x1)</v>
+      </c>
+      <c r="F64">
+        <v>20000</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>V-1771116996464</v>
+      </c>
+      <c r="B65" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C65" t="str">
+        <v>12:56 a. m.</v>
+      </c>
+      <c r="D65" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Cerveza Aguila Ligth (x1), Cerveza Poker (x1)</v>
+      </c>
+      <c r="F65">
+        <v>20000</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>V-1771117209749</v>
+      </c>
+      <c r="B66" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C66" t="str">
+        <v>01:00 a. m.</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Cerveza Corona (x2)</v>
+      </c>
+      <c r="F66">
+        <v>24000</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>V-1771117221788</v>
+      </c>
+      <c r="B67" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C67" t="str">
+        <v>01:00 a. m.</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F67">
+        <v>10000</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>V-1771117417703</v>
+      </c>
+      <c r="B68" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C68" t="str">
+        <v>01:03 a. m.</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Cerveza Poker (x2)</v>
+      </c>
+      <c r="F68">
+        <v>20000</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>V-1771117503159</v>
+      </c>
+      <c r="B69" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C69" t="str">
+        <v>01:05 a. m.</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Aguardiente Ligth Botella (x1)</v>
+      </c>
+      <c r="F69">
+        <v>86000</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>V-1771117508800</v>
+      </c>
+      <c r="B70" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C70" t="str">
+        <v>01:05 a. m.</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F70">
+        <v>56000</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>V-1771117630323</v>
+      </c>
+      <c r="B71" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C71" t="str">
+        <v>01:07 a. m.</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Cerveza Corona (x1)</v>
+      </c>
+      <c r="F71">
+        <v>12000</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>V-1771117710951</v>
+      </c>
+      <c r="B72" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C72" t="str">
+        <v>01:08 a. m.</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Aguardiente Ligth Botella (x1), Cerveza Poker (x1), Cerveza Aguila Ligth (x1)</v>
+      </c>
+      <c r="F72">
+        <v>106000</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>V-1771117758157</v>
+      </c>
+      <c r="B73" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C73" t="str">
+        <v>01:09 a. m.</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Aguardiente Ligth Caja (x1)</v>
+      </c>
+      <c r="F73">
+        <v>110000</v>
+      </c>
+      <c r="G73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>V-1771117977087</v>
+      </c>
+      <c r="B74" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C74" t="str">
+        <v>01:12 a. m.</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Aguardiente Amarillo Botella (x1)</v>
+      </c>
+      <c r="F74">
+        <v>108000</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>V-1771118153869</v>
+      </c>
+      <c r="B75" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C75" t="str">
+        <v>01:15 a. m.</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Ron 5 años Media (x1), Coca Cola (x1)</v>
+      </c>
+      <c r="F75">
+        <v>83000</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>V-1771118180560</v>
+      </c>
+      <c r="B76" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C76" t="str">
+        <v>01:16 a. m.</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F76">
+        <v>10000</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>V-1771118182075</v>
+      </c>
+      <c r="B77" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C77" t="str">
+        <v>01:16 a. m.</v>
+      </c>
+      <c r="D77" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Aguardiente Amarillo Media (x1)</v>
+      </c>
+      <c r="F77">
+        <v>70000</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>V-1771118190986</v>
+      </c>
+      <c r="B78" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C78" t="str">
+        <v>01:16 a. m.</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Aguardiente Amarillo Media (x1), Cerveza Aguila Ligth (x1)</v>
+      </c>
+      <c r="F78">
+        <v>80000</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>V-1771118240337</v>
+      </c>
+      <c r="B79" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C79" t="str">
+        <v>01:17 a. m.</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Aguardiente Amarillo Media (x1)</v>
+      </c>
+      <c r="F79">
+        <v>70000</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>V-1771118247407</v>
+      </c>
+      <c r="B80" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C80" t="str">
+        <v>01:17 a. m.</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F80">
+        <v>10000</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>V-1771118389181</v>
+      </c>
+      <c r="B81" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C81" t="str">
+        <v>01:19 a. m.</v>
+      </c>
+      <c r="D81" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Ron 5 años Botella (x1), Coca Cola (x1)</v>
+      </c>
+      <c r="F81">
+        <v>137000</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>V-1771118396295</v>
+      </c>
+      <c r="B82" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C82" t="str">
+        <v>01:19 a. m.</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Cerveza Poker (x2)</v>
+      </c>
+      <c r="F82">
+        <v>20000</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>V-1771118400397</v>
+      </c>
+      <c r="B83" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C83" t="str">
+        <v>01:20 a. m.</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Aguardiente Ligth Botella (x1)</v>
+      </c>
+      <c r="F83">
+        <v>86000</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>V-1771118520293</v>
+      </c>
+      <c r="B84" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C84" t="str">
+        <v>01:21 a. m.</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Ron Tradicional Media (x1), Soda (x2)</v>
+      </c>
+      <c r="F84">
+        <v>78000</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>V-1771118542692</v>
+      </c>
+      <c r="B85" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C85" t="str">
+        <v>01:22 a. m.</v>
+      </c>
+      <c r="D85" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Aguardiente Cristal Media (x1)</v>
+      </c>
+      <c r="F85">
+        <v>54000</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>V-1771118574615</v>
+      </c>
+      <c r="B86" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C86" t="str">
+        <v>01:22 a. m.</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Aguardiente Cristal Media (x1)</v>
+      </c>
+      <c r="F86">
+        <v>54000</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>V-1771118577054</v>
+      </c>
+      <c r="B87" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C87" t="str">
+        <v>01:22 a. m.</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Aguardiente Ligth Media (x1), Cerveza Aguila Ligth (x1)</v>
+      </c>
+      <c r="F87">
+        <v>66000</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>V-1771118706903</v>
+      </c>
+      <c r="B88" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C88" t="str">
+        <v>01:25 a. m.</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F88">
+        <v>56000</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>V-1771118905154</v>
+      </c>
+      <c r="B89" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C89" t="str">
+        <v>01:28 a. m.</v>
+      </c>
+      <c r="D89" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Cerveza Poker (x4)</v>
+      </c>
+      <c r="F89">
+        <v>40000</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>V-1771118925249</v>
+      </c>
+      <c r="B90" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C90" t="str">
+        <v>01:28 a. m.</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Ron 5 años Botella (x1)</v>
+      </c>
+      <c r="F90">
+        <v>132000</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>V-1771118984658</v>
+      </c>
+      <c r="B91" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C91" t="str">
+        <v>01:29 a. m.</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Aguardiente Cristal Media (x1)</v>
+      </c>
+      <c r="F91">
+        <v>54000</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>V-1771119068666</v>
+      </c>
+      <c r="B92" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C92" t="str">
+        <v>01:31 a. m.</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Ron Tradicional Media (x1)</v>
+      </c>
+      <c r="F92">
+        <v>68000</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>V-1771119186762</v>
+      </c>
+      <c r="B93" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C93" t="str">
+        <v>01:33 a. m.</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Ron 5 años Media (x1), Coca Cola (x2)</v>
+      </c>
+      <c r="F93">
+        <v>88000</v>
+      </c>
+      <c r="G93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>V-1771119220795</v>
+      </c>
+      <c r="B94" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C94" t="str">
+        <v>01:33 a. m.</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Aguardiente Amarillo Botella (x1)</v>
+      </c>
+      <c r="F94">
+        <v>108000</v>
+      </c>
+      <c r="G94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>V-1771119298303</v>
+      </c>
+      <c r="B95" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C95" t="str">
+        <v>01:34 a. m.</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Aguardiente Ligth Caja (x1)</v>
+      </c>
+      <c r="F95">
+        <v>110000</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>V-1771119313641</v>
+      </c>
+      <c r="B96" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C96" t="str">
+        <v>01:35 a. m.</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Ron 5 años Botella (x1)</v>
+      </c>
+      <c r="F96">
+        <v>132000</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>V-1771119320188</v>
+      </c>
+      <c r="B97" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C97" t="str">
+        <v>01:35 a. m.</v>
+      </c>
+      <c r="D97" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Aguardiente Cristal Botella (x1)</v>
+      </c>
+      <c r="F97">
+        <v>86000</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>V-1771119346993</v>
+      </c>
+      <c r="B98" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C98" t="str">
+        <v>01:35 a. m.</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E98" t="str">
+        <v>Aguardiente Amarillo Media (x1)</v>
+      </c>
+      <c r="F98">
+        <v>70000</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>V-1771119458272</v>
+      </c>
+      <c r="B99" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C99" t="str">
+        <v>01:37 a. m.</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Ron 5 años Media (x1), Soda (x1)</v>
+      </c>
+      <c r="F99">
+        <v>83000</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>V-1771119469518</v>
+      </c>
+      <c r="B100" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C100" t="str">
+        <v>01:37 a. m.</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F100">
+        <v>56000</v>
+      </c>
+      <c r="G100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>V-1771119708640</v>
+      </c>
+      <c r="B101" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C101" t="str">
+        <v>01:41 a. m.</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E101" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F101">
+        <v>10000</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>V-1771119741932</v>
+      </c>
+      <c r="B102" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C102" t="str">
+        <v>01:42 a. m.</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Agua Botella Pequeña (x1)</v>
+      </c>
+      <c r="F102">
+        <v>3000</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>V-1771119763990</v>
+      </c>
+      <c r="B103" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C103" t="str">
+        <v>01:42 a. m.</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E103" t="str">
+        <v>Aguardiente Cristal Caja (x1)</v>
+      </c>
+      <c r="F103">
+        <v>100000</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>V-1771119775903</v>
+      </c>
+      <c r="B104" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C104" t="str">
+        <v>01:42 a. m.</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E104" t="str">
+        <v>Coca Cola (x1)</v>
+      </c>
+      <c r="F104">
+        <v>5000</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>V-1771119822683</v>
+      </c>
+      <c r="B105" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C105" t="str">
+        <v>01:43 a. m.</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E105" t="str">
+        <v>Cerveza Corona (x1)</v>
+      </c>
+      <c r="F105">
+        <v>12000</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>V-1771120044598</v>
+      </c>
+      <c r="B106" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C106" t="str">
+        <v>01:47 a. m.</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Ron 5 años Botella (x1)</v>
+      </c>
+      <c r="F106">
+        <v>132000</v>
+      </c>
+      <c r="G106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>V-1771120092796</v>
+      </c>
+      <c r="B107" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C107" t="str">
+        <v>01:48 a. m.</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E107" t="str">
+        <v>Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F107">
+        <v>56000</v>
+      </c>
+      <c r="G107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>V-1771120218164</v>
+      </c>
+      <c r="B108" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C108" t="str">
+        <v>01:50 a. m.</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E108" t="str">
+        <v>Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F108">
+        <v>56000</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>V-1771120318503</v>
+      </c>
+      <c r="B109" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C109" t="str">
+        <v>01:51 a. m.</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E109" t="str">
+        <v>Aguardiente Amarillo Botella (x1)</v>
+      </c>
+      <c r="F109">
+        <v>108000</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>V-1771120364932</v>
+      </c>
+      <c r="B110" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C110" t="str">
+        <v>01:52 a. m.</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E110" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F110">
+        <v>10000</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>V-1771120365131</v>
+      </c>
+      <c r="B111" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C111" t="str">
+        <v>01:52 a. m.</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E111" t="str">
+        <v>Soda (x1)</v>
+      </c>
+      <c r="F111">
+        <v>5000</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>V-1771120456334</v>
+      </c>
+      <c r="B112" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C112" t="str">
+        <v>01:54 a. m.</v>
+      </c>
+      <c r="D112" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E112" t="str">
+        <v>Cerveza Poker (x1), Coca Cola (x2)</v>
+      </c>
+      <c r="F112">
+        <v>20000</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>V-1771120597895</v>
+      </c>
+      <c r="B113" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C113" t="str">
+        <v>01:56 a. m.</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E113" t="str">
+        <v>Aguardiente Cristal Caja (x1)</v>
+      </c>
+      <c r="F113">
+        <v>100000</v>
+      </c>
+      <c r="G113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>V-1771120622450</v>
+      </c>
+      <c r="B114" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C114" t="str">
+        <v>01:57 a. m.</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E114" t="str">
+        <v>Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F114">
+        <v>56000</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>V-1771120735598</v>
+      </c>
+      <c r="B115" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C115" t="str">
+        <v>01:58 a. m.</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Aguardiente Ligth Caja (x1)</v>
+      </c>
+      <c r="F115">
+        <v>110000</v>
+      </c>
+      <c r="G115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>V-1771120865959</v>
+      </c>
+      <c r="B116" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C116" t="str">
+        <v>02:01 a. m.</v>
+      </c>
+      <c r="D116" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E116" t="str">
+        <v>Aguardiente Ligth Caja (x1)</v>
+      </c>
+      <c r="F116">
+        <v>110000</v>
+      </c>
+      <c r="G116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>V-1771120956340</v>
+      </c>
+      <c r="B117" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C117" t="str">
+        <v>02:02 a. m.</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E117" t="str">
+        <v>Aguardiente Cristal Caja (x1), Gatorade (x1)</v>
+      </c>
+      <c r="F117">
+        <v>106000</v>
+      </c>
+      <c r="G117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>V-1771120973237</v>
+      </c>
+      <c r="B118" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C118" t="str">
+        <v>02:02 a. m.</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E118" t="str">
+        <v>Aguardiente Ligth Botella (x1)</v>
+      </c>
+      <c r="F118">
+        <v>86000</v>
+      </c>
+      <c r="G118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>V-1771121006281</v>
+      </c>
+      <c r="B119" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C119" t="str">
+        <v>02:03 a. m.</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E119" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F119">
+        <v>10000</v>
+      </c>
+      <c r="G119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>V-1771121135078</v>
+      </c>
+      <c r="B120" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C120" t="str">
+        <v>02:05 a. m.</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Aguardiente Ligth Caja (x2), Gatorade (x1)</v>
+      </c>
+      <c r="F120">
+        <v>226000</v>
+      </c>
+      <c r="G120">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>V-1771121139241</v>
+      </c>
+      <c r="B121" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C121" t="str">
+        <v>02:05 a. m.</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E121" t="str">
+        <v>Ron 5 años Botella (x1), Ginger Canada Dry (x4)</v>
+      </c>
+      <c r="F121">
+        <v>152000</v>
+      </c>
+      <c r="G121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>V-1771121187101</v>
+      </c>
+      <c r="B122" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C122" t="str">
+        <v>02:06 a. m.</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E122" t="str">
+        <v>Aguardiente Cristal Media (x1)</v>
+      </c>
+      <c r="F122">
+        <v>54000</v>
+      </c>
+      <c r="G122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>V-1771121208017</v>
+      </c>
+      <c r="B123" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C123" t="str">
+        <v>02:06 a. m.</v>
+      </c>
+      <c r="D123" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E123" t="str">
+        <v>Cerveza Poker (x2)</v>
+      </c>
+      <c r="F123">
+        <v>20000</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>V-1771121287651</v>
+      </c>
+      <c r="B124" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C124" t="str">
+        <v>02:08 a. m.</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E124" t="str">
+        <v>Aguardiente Ligth Media (x1), Ginger Canada Dry (x1)</v>
+      </c>
+      <c r="F124">
+        <v>61000</v>
+      </c>
+      <c r="G124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>V-1771121411309</v>
+      </c>
+      <c r="B125" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C125" t="str">
+        <v>02:10 a. m.</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E125" t="str">
+        <v>Aguardiente Ligth Botella (x1)</v>
+      </c>
+      <c r="F125">
+        <v>86000</v>
+      </c>
+      <c r="G125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>V-1771121447312</v>
+      </c>
+      <c r="B126" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C126" t="str">
+        <v>02:10 a. m.</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E126" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F126">
+        <v>10000</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>V-1771121721854</v>
+      </c>
+      <c r="B127" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C127" t="str">
+        <v>02:15 a. m.</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E127" t="str">
+        <v>Aguardiente Cristal Media (x1)</v>
+      </c>
+      <c r="F127">
+        <v>54000</v>
+      </c>
+      <c r="G127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>V-1771121750451</v>
+      </c>
+      <c r="B128" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C128" t="str">
+        <v>02:15 a. m.</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E128" t="str">
+        <v>Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F128">
+        <v>56000</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>V-1771121896351</v>
+      </c>
+      <c r="B129" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C129" t="str">
+        <v>02:18 a. m.</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E129" t="str">
+        <v>Ron 5 años Media (x1), Cerveza Club Colombia (x1)</v>
+      </c>
+      <c r="F129">
+        <v>88000</v>
+      </c>
+      <c r="G129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>V-1771121948875</v>
+      </c>
+      <c r="B130" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C130" t="str">
+        <v>02:19 a. m.</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E130" t="str">
+        <v>Aguardiente Cristal Caja (x1)</v>
+      </c>
+      <c r="F130">
+        <v>100000</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>V-1771121977007</v>
+      </c>
+      <c r="B131" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C131" t="str">
+        <v>02:19 a. m.</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E131" t="str">
+        <v>Soda (x1)</v>
+      </c>
+      <c r="F131">
+        <v>5000</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>V-1771122046289</v>
+      </c>
+      <c r="B132" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C132" t="str">
+        <v>02:20 a. m.</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E132" t="str">
+        <v>Ron 5 años Botella (x1)</v>
+      </c>
+      <c r="F132">
+        <v>132000</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>V-1771122103754</v>
+      </c>
+      <c r="B133" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C133" t="str">
+        <v>02:21 a. m.</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E133" t="str">
+        <v>Ron 5 años Botella (x1), Cerveza Club Colombia (x1)</v>
+      </c>
+      <c r="F133">
+        <v>142000</v>
+      </c>
+      <c r="G133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>V-1771122270423</v>
+      </c>
+      <c r="B134" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C134" t="str">
+        <v>02:24 a. m.</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E134" t="str">
+        <v>Ron Tradicional Botella (x1)</v>
+      </c>
+      <c r="F134">
+        <v>104000</v>
+      </c>
+      <c r="G134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>V-1771122334488</v>
+      </c>
+      <c r="B135" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C135" t="str">
+        <v>02:25 a. m.</v>
+      </c>
+      <c r="D135" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E135" t="str">
+        <v>Aguardiente Amarillo Media (x1)</v>
+      </c>
+      <c r="F135">
+        <v>70000</v>
+      </c>
+      <c r="G135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>V-1771122444002</v>
+      </c>
+      <c r="B136" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C136" t="str">
+        <v>02:27 a. m.</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E136" t="str">
+        <v>Aguardiente Cristal Media (x1), Soda (x1)</v>
+      </c>
+      <c r="F136">
+        <v>59000</v>
+      </c>
+      <c r="G136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>V-1771122465893</v>
+      </c>
+      <c r="B137" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C137" t="str">
+        <v>02:27 a. m.</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E137" t="str">
+        <v>Aguardiente Ligth Caja (x1)</v>
+      </c>
+      <c r="F137">
+        <v>110000</v>
+      </c>
+      <c r="G137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>V-1771122774117</v>
+      </c>
+      <c r="B138" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C138" t="str">
+        <v>02:32 a. m.</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E138" t="str">
+        <v>Aguardiente Ligth Caja (x1)</v>
+      </c>
+      <c r="F138">
+        <v>110000</v>
+      </c>
+      <c r="G138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>V-1771123005443</v>
+      </c>
+      <c r="B139" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C139" t="str">
+        <v>02:36 a. m.</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E139" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F139">
+        <v>10000</v>
+      </c>
+      <c r="G139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>V-1771123111412</v>
+      </c>
+      <c r="B140" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C140" t="str">
+        <v>02:38 a. m.</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E140" t="str">
+        <v>Aguardiente Cristal Media (x1)</v>
+      </c>
+      <c r="F140">
+        <v>54000</v>
+      </c>
+      <c r="G140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>V-1771123242910</v>
+      </c>
+      <c r="B141" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C141" t="str">
+        <v>02:40 a. m.</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E141" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F141">
+        <v>10000</v>
+      </c>
+      <c r="G141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>V-1771123254810</v>
+      </c>
+      <c r="B142" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C142" t="str">
+        <v>02:40 a. m.</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E142" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F142">
+        <v>10000</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>V-1771123340593</v>
+      </c>
+      <c r="B143" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C143" t="str">
+        <v>02:42 a. m.</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E143" t="str">
+        <v>Cerveza Poker (x1), Soda (x1)</v>
+      </c>
+      <c r="F143">
+        <v>15000</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>V-1771123644330</v>
+      </c>
+      <c r="B144" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C144" t="str">
+        <v>02:47 a. m.</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E144" t="str">
+        <v>Soda (x3)</v>
+      </c>
+      <c r="F144">
+        <v>15000</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>V-1771123691205</v>
+      </c>
+      <c r="B145" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C145" t="str">
+        <v>02:48 a. m.</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E145" t="str">
+        <v>Aguardiente Amarillo Botella (x1)</v>
+      </c>
+      <c r="F145">
+        <v>108000</v>
+      </c>
+      <c r="G145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>V-1771123766784</v>
+      </c>
+      <c r="B146" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C146" t="str">
+        <v>02:49 a. m.</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E146" t="str">
+        <v>Aguardiente Cristal Caja (x1)</v>
+      </c>
+      <c r="F146">
+        <v>100000</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>V-1771123844965</v>
+      </c>
+      <c r="B147" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C147" t="str">
+        <v>02:50 a. m.</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E147" t="str">
+        <v>Aguardiente Amarillo Botella (x1)</v>
+      </c>
+      <c r="F147">
+        <v>108000</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>V-1771123924883</v>
+      </c>
+      <c r="B148" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C148" t="str">
+        <v>02:52 a. m.</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E148" t="str">
+        <v>Aguardiente Cristal Media (x1)</v>
+      </c>
+      <c r="F148">
+        <v>54000</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>V-1771123933417</v>
+      </c>
+      <c r="B149" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C149" t="str">
+        <v>02:52 a. m.</v>
+      </c>
+      <c r="D149" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E149" t="str">
+        <v>Aguardiente Ligth Caja (x1)</v>
+      </c>
+      <c r="F149">
+        <v>110000</v>
+      </c>
+      <c r="G149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>V-1771124028077</v>
+      </c>
+      <c r="B150" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C150" t="str">
+        <v>02:53 a. m.</v>
+      </c>
+      <c r="D150" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E150" t="str">
+        <v>Ron Tradicional Caja (x1)</v>
+      </c>
+      <c r="F150">
+        <v>110000</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>V-1771124047217</v>
+      </c>
+      <c r="B151" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C151" t="str">
+        <v>02:54 a. m.</v>
+      </c>
+      <c r="D151" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E151" t="str">
+        <v>Cerveza Poker (x2)</v>
+      </c>
+      <c r="F151">
+        <v>20000</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>V-1771124169140</v>
+      </c>
+      <c r="B152" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C152" t="str">
+        <v>02:56 a. m.</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E152" t="str">
+        <v>Aguardiente Cristal Caja (x1)</v>
+      </c>
+      <c r="F152">
+        <v>100000</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>V-1771124189953</v>
+      </c>
+      <c r="B153" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C153" t="str">
+        <v>02:56 a. m.</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E153" t="str">
+        <v>Coca Cola (x2)</v>
+      </c>
+      <c r="F153">
+        <v>10000</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>V-1771124267179</v>
+      </c>
+      <c r="B154" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C154" t="str">
+        <v>02:57 a. m.</v>
+      </c>
+      <c r="D154" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E154" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F154">
+        <v>10000</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>V-1771124270364</v>
+      </c>
+      <c r="B155" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C155" t="str">
+        <v>02:57 a. m.</v>
+      </c>
+      <c r="D155" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E155" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F155">
+        <v>10000</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>V-1771124395754</v>
+      </c>
+      <c r="B156" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C156" t="str">
+        <v>02:59 a. m.</v>
+      </c>
+      <c r="D156" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E156" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F156">
+        <v>10000</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>V-1771124515161</v>
+      </c>
+      <c r="B157" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C157" t="str">
+        <v>03:01 a. m.</v>
+      </c>
+      <c r="D157" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E157" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F157">
+        <v>10000</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>V-1771124589332</v>
+      </c>
+      <c r="B158" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C158" t="str">
+        <v>03:03 a. m.</v>
+      </c>
+      <c r="D158" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E158" t="str">
+        <v>Aguardiente Ligth Caja (x1)</v>
+      </c>
+      <c r="F158">
+        <v>110000</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>V-1771124861485</v>
+      </c>
+      <c r="B159" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C159" t="str">
+        <v>03:07 a. m.</v>
+      </c>
+      <c r="D159" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E159" t="str">
+        <v>Aguardiente Amarillo Media (x1)</v>
+      </c>
+      <c r="F159">
+        <v>70000</v>
+      </c>
+      <c r="G159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>V-1771125057091</v>
+      </c>
+      <c r="B160" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C160" t="str">
+        <v>03:10 a. m.</v>
+      </c>
+      <c r="D160" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E160" t="str">
+        <v>Soda (x1)</v>
+      </c>
+      <c r="F160">
+        <v>5000</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>V-1771125343636</v>
+      </c>
+      <c r="B161" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C161" t="str">
+        <v>03:15 a. m.</v>
+      </c>
+      <c r="D161" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E161" t="str">
+        <v>Cerveza Club Colombia (x1)</v>
+      </c>
+      <c r="F161">
+        <v>10000</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>V-1771125653191</v>
+      </c>
+      <c r="B162" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C162" t="str">
+        <v>03:20 a. m.</v>
+      </c>
+      <c r="D162" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E162" t="str">
+        <v>Gatorade (x2)</v>
+      </c>
+      <c r="F162">
+        <v>12000</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>V-1771126249999</v>
+      </c>
+      <c r="B163" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C163" t="str">
+        <v>03:30 a. m.</v>
+      </c>
+      <c r="D163" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E163" t="str">
+        <v>Ron Tradicional Media (x1), Cerveza Poker (x4)</v>
+      </c>
+      <c r="F163">
+        <v>108000</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>V-1771126260601</v>
+      </c>
+      <c r="B164" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C164" t="str">
+        <v>03:30 a. m.</v>
+      </c>
+      <c r="D164" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E164" t="str">
+        <v>Aguardiente Amarillo Media (x1)</v>
+      </c>
+      <c r="F164">
+        <v>70000</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>V-1771126534198</v>
+      </c>
+      <c r="B165" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C165" t="str">
+        <v>03:35 a. m.</v>
+      </c>
+      <c r="D165" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E165" t="str">
+        <v>Cerveza Club Colombia (x1)</v>
+      </c>
+      <c r="F165">
+        <v>10000</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>V-1771126625691</v>
+      </c>
+      <c r="B166" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C166" t="str">
+        <v>03:37 a. m.</v>
+      </c>
+      <c r="D166" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E166" t="str">
+        <v>Cerveza Poker (x3)</v>
+      </c>
+      <c r="F166">
+        <v>30000</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>V-1771126827544</v>
+      </c>
+      <c r="B167" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C167" t="str">
+        <v>03:40 a. m.</v>
+      </c>
+      <c r="D167" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E167" t="str">
+        <v>Cerveza Poker (x3)</v>
+      </c>
+      <c r="F167">
+        <v>30000</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>V-1771126971369</v>
+      </c>
+      <c r="B168" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C168" t="str">
+        <v>03:42 a. m.</v>
+      </c>
+      <c r="D168" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E168" t="str">
+        <v>Cerveza Club Colombia (x2)</v>
+      </c>
+      <c r="F168">
+        <v>20000</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>V-1771127439167</v>
+      </c>
+      <c r="B169" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C169" t="str">
+        <v>03:50 a. m.</v>
+      </c>
+      <c r="D169" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E169" t="str">
+        <v>Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F169">
+        <v>56000</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>V-1771127750182</v>
+      </c>
+      <c r="B170" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C170" t="str">
+        <v>03:55 a. m.</v>
+      </c>
+      <c r="D170" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E170" t="str">
+        <v>Ron 5 años Media (x1)</v>
+      </c>
+      <c r="F170">
+        <v>78000</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>V-1771127869886</v>
+      </c>
+      <c r="B171" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C171" t="str">
+        <v>03:57 a. m.</v>
+      </c>
+      <c r="D171" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E171" t="str">
+        <v>Cerveza Poker (x2)</v>
+      </c>
+      <c r="F171">
+        <v>20000</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>V-1771128124593</v>
+      </c>
+      <c r="B172" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C172" t="str">
+        <v>04:01 a. m.</v>
+      </c>
+      <c r="D172" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E172" t="str">
+        <v>Cerveza Poker (x2)</v>
+      </c>
+      <c r="F172">
+        <v>20000</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>V-1771128141468</v>
+      </c>
+      <c r="B173" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C173" t="str">
+        <v>04:02 a. m.</v>
+      </c>
+      <c r="D173" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E173" t="str">
+        <v>Soda (x2)</v>
+      </c>
+      <c r="F173">
+        <v>10000</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>V-1771128232238</v>
+      </c>
+      <c r="B174" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C174" t="str">
+        <v>04:03 a. m.</v>
+      </c>
+      <c r="D174" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E174" t="str">
+        <v>Cerveza Club Colombia (x1)</v>
+      </c>
+      <c r="F174">
+        <v>10000</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>V-1771128227189</v>
+      </c>
+      <c r="B175" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C175" t="str">
+        <v>04:03 a. m.</v>
+      </c>
+      <c r="D175" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E175" t="str">
+        <v>Aguardiente Cristal Media (x1)</v>
+      </c>
+      <c r="F175">
+        <v>54000</v>
+      </c>
+      <c r="G175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>V-1771128402526</v>
+      </c>
+      <c r="B176" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C176" t="str">
+        <v>04:06 a. m.</v>
+      </c>
+      <c r="D176" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E176" t="str">
+        <v>Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F176">
+        <v>56000</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>V-1771128539543</v>
+      </c>
+      <c r="B177" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C177" t="str">
+        <v>04:09 a. m.</v>
+      </c>
+      <c r="D177" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E177" t="str">
+        <v>Electrolit (x1), Bonfiest Bomba (x1)</v>
+      </c>
+      <c r="F177">
+        <v>11100</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>V-1771128590368</v>
+      </c>
+      <c r="B178" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C178" t="str">
+        <v>04:09 a. m.</v>
+      </c>
+      <c r="D178" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E178" t="str">
+        <v>Aguardiente Cristal Caja (x1)</v>
+      </c>
+      <c r="F178">
+        <v>100000</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>V-1771128599457</v>
+      </c>
+      <c r="B179" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C179" t="str">
+        <v>04:09 a. m.</v>
+      </c>
+      <c r="D179" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E179" t="str">
+        <v>Ron Tradicional Botella (x1)</v>
+      </c>
+      <c r="F179">
+        <v>104000</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>V-1771128624288</v>
+      </c>
+      <c r="B180" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C180" t="str">
+        <v>04:10 a. m.</v>
+      </c>
+      <c r="D180" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E180" t="str">
+        <v>Cerveza Poker (x1), Postobon y Pepsi (x1)</v>
+      </c>
+      <c r="F180">
+        <v>15000</v>
+      </c>
+      <c r="G180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>V-1771128711296</v>
+      </c>
+      <c r="B181" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C181" t="str">
+        <v>04:11 a. m.</v>
+      </c>
+      <c r="D181" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E181" t="str">
+        <v>Gatorade (x1)</v>
+      </c>
+      <c r="F181">
+        <v>6000</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>V-1771128928082</v>
+      </c>
+      <c r="B182" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C182" t="str">
+        <v>04:15 a. m.</v>
+      </c>
+      <c r="D182" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E182" t="str">
+        <v>Ron 5 años Botella (x1)</v>
+      </c>
+      <c r="F182">
+        <v>132000</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>V-1771129025894</v>
+      </c>
+      <c r="B183" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C183" t="str">
+        <v>04:17 a. m.</v>
+      </c>
+      <c r="D183" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E183" t="str">
+        <v>Gatorade (x1)</v>
+      </c>
+      <c r="F183">
+        <v>6000</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>V-1771129179210</v>
+      </c>
+      <c r="B184" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C184" t="str">
+        <v>04:19 a. m.</v>
+      </c>
+      <c r="D184" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E184" t="str">
+        <v>Aguardiente Ligth Caja (x1)</v>
+      </c>
+      <c r="F184">
+        <v>110000</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>V-1771129355282</v>
+      </c>
+      <c r="B185" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C185" t="str">
+        <v>04:22 a. m.</v>
+      </c>
+      <c r="D185" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E185" t="str">
+        <v>Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F185">
+        <v>56000</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>V-1771129509278</v>
+      </c>
+      <c r="B186" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C186" t="str">
+        <v>04:25 a. m.</v>
+      </c>
+      <c r="D186" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E186" t="str">
+        <v>Aguardiente Amarillo Media (x1)</v>
+      </c>
+      <c r="F186">
+        <v>70000</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>V-1771130007729</v>
+      </c>
+      <c r="B187" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C187" t="str">
+        <v>04:33 a. m.</v>
+      </c>
+      <c r="D187" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E187" t="str">
+        <v>Aguardiente Ligth Media (x1), Postobon y Pepsi (x1)</v>
+      </c>
+      <c r="F187">
+        <v>61000</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>V-1771130287052</v>
+      </c>
+      <c r="B188" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C188" t="str">
+        <v>04:38 a. m.</v>
+      </c>
+      <c r="D188" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E188" t="str">
+        <v>Aguardiente Cristal Caja (x1)</v>
+      </c>
+      <c r="F188">
+        <v>100000</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>V-1771130519708</v>
+      </c>
+      <c r="B189" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C189" t="str">
+        <v>04:41 a. m.</v>
+      </c>
+      <c r="D189" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E189" t="str">
+        <v>Cerveza Club Colombia (x1)</v>
+      </c>
+      <c r="F189">
+        <v>10000</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>V-1771130587911</v>
+      </c>
+      <c r="B190" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C190" t="str">
+        <v>04:43 a. m.</v>
+      </c>
+      <c r="D190" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E190" t="str">
+        <v>Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F190">
+        <v>56000</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>V-1771130615354</v>
+      </c>
+      <c r="B191" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C191" t="str">
+        <v>04:43 a. m.</v>
+      </c>
+      <c r="D191" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E191" t="str">
+        <v>Cerveza Poker (x2), Cerveza Aguila Ligth (x1)</v>
+      </c>
+      <c r="F191">
+        <v>30000</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>V-1771130982867</v>
+      </c>
+      <c r="B192" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C192" t="str">
+        <v>04:49 a. m.</v>
+      </c>
+      <c r="D192" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E192" t="str">
+        <v>Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F192">
+        <v>56000</v>
+      </c>
+      <c r="G192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>V-1771131136265</v>
+      </c>
+      <c r="B193" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C193" t="str">
+        <v>04:52 a. m.</v>
+      </c>
+      <c r="D193" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E193" t="str">
+        <v>Aguardiente Amarillo Botella (x1)</v>
+      </c>
+      <c r="F193">
+        <v>108000</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>V-1771131327921</v>
+      </c>
+      <c r="B194" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C194" t="str">
+        <v>04:55 a. m.</v>
+      </c>
+      <c r="D194" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E194" t="str">
+        <v>Ron Tradicional Caja (x1)</v>
+      </c>
+      <c r="F194">
+        <v>110000</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>V-1771131525569</v>
+      </c>
+      <c r="B195" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C195" t="str">
+        <v>04:58 a. m.</v>
+      </c>
+      <c r="D195" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E195" t="str">
+        <v>Cerveza Club Colombia (x2)</v>
+      </c>
+      <c r="F195">
+        <v>20000</v>
+      </c>
+      <c r="G195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>V-1771131778402</v>
+      </c>
+      <c r="B196" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C196" t="str">
+        <v>05:02 a. m.</v>
+      </c>
+      <c r="D196" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E196" t="str">
+        <v>Aguardiente Ligth Caja (x1), Cerveza Poker (x2)</v>
+      </c>
+      <c r="F196">
+        <v>130000</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>V-1771132310305</v>
+      </c>
+      <c r="B197" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C197" t="str">
+        <v>05:11 a. m.</v>
+      </c>
+      <c r="D197" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E197" t="str">
+        <v>Cerveza Aguila Ligth (x1)</v>
+      </c>
+      <c r="F197">
+        <v>10000</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>V-1771132410562</v>
+      </c>
+      <c r="B198" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C198" t="str">
+        <v>05:13 a. m.</v>
+      </c>
+      <c r="D198" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E198" t="str">
+        <v>Aguardiente Amarillo Botella (x1)</v>
+      </c>
+      <c r="F198">
+        <v>108000</v>
+      </c>
+      <c r="G198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>V-1771132649039</v>
+      </c>
+      <c r="B199" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C199" t="str">
+        <v>05:17 a. m.</v>
+      </c>
+      <c r="D199" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E199" t="str">
+        <v>Cerveza Aguila Ligth (x1), Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F199">
+        <v>66000</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>V-1771132661144</v>
+      </c>
+      <c r="B200" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C200" t="str">
+        <v>05:17 a. m.</v>
+      </c>
+      <c r="D200" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E200" t="str">
+        <v>Cerveza Club Colombia (x1)</v>
+      </c>
+      <c r="F200">
+        <v>10000</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>V-1771132708090</v>
+      </c>
+      <c r="B201" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C201" t="str">
+        <v>05:18 a. m.</v>
+      </c>
+      <c r="D201" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E201" t="str">
+        <v>Aguardiente Cristal Media (x1)</v>
+      </c>
+      <c r="F201">
+        <v>54000</v>
+      </c>
+      <c r="G201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>V-1771132853147</v>
+      </c>
+      <c r="B202" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C202" t="str">
+        <v>05:20 a. m.</v>
+      </c>
+      <c r="D202" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E202" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F202">
+        <v>10000</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>V-1771133312623</v>
+      </c>
+      <c r="B203" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C203" t="str">
+        <v>05:28 a. m.</v>
+      </c>
+      <c r="D203" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E203" t="str">
+        <v>Aguardiente Cristal Caja (x1)</v>
+      </c>
+      <c r="F203">
+        <v>100000</v>
+      </c>
+      <c r="G203">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>V-1771133322160</v>
+      </c>
+      <c r="B204" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C204" t="str">
+        <v>05:28 a. m.</v>
+      </c>
+      <c r="D204" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E204" t="str">
+        <v>Soda (x1)</v>
+      </c>
+      <c r="F204">
+        <v>5000</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>V-1771133341623</v>
+      </c>
+      <c r="B205" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C205" t="str">
+        <v>05:29 a. m.</v>
+      </c>
+      <c r="D205" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E205" t="str">
+        <v>Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F205">
+        <v>56000</v>
+      </c>
+      <c r="G205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>V-1771133956971</v>
+      </c>
+      <c r="B206" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C206" t="str">
+        <v>05:39 a. m.</v>
+      </c>
+      <c r="D206" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="E206" t="str">
+        <v>Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F206">
+        <v>56000</v>
+      </c>
+      <c r="G206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>V-1771134965682</v>
+      </c>
+      <c r="B207" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C207" t="str">
+        <v>05:56 a. m.</v>
+      </c>
+      <c r="D207" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E207" t="str">
+        <v>Cerveza Aguila Ligth (x2)</v>
+      </c>
+      <c r="F207">
+        <v>20000</v>
+      </c>
+      <c r="G207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>V-1771136223510</v>
+      </c>
+      <c r="B208" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C208" t="str">
+        <v>06:17 a. m.</v>
+      </c>
+      <c r="D208" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="E208" t="str">
+        <v>Aguardiente Ligth Botella (x1)</v>
+      </c>
+      <c r="F208">
+        <v>86000</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>V-1771136334757</v>
+      </c>
+      <c r="B209" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C209" t="str">
+        <v>06:18 a. m.</v>
+      </c>
+      <c r="D209" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E209" t="str">
+        <v>Coca Cola (x1)</v>
+      </c>
+      <c r="F209">
+        <v>5000</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>V-1771136531379</v>
+      </c>
+      <c r="B210" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C210" t="str">
+        <v>06:22 a. m.</v>
+      </c>
+      <c r="D210" t="str">
+        <v>Laura</v>
+      </c>
+      <c r="E210" t="str">
+        <v>Aguardiente Cristal Media (x1)</v>
+      </c>
+      <c r="F210">
+        <v>54000</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>V-1771136810911</v>
+      </c>
+      <c r="B211" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C211" t="str">
+        <v>06:26 a. m.</v>
+      </c>
+      <c r="D211" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E211" t="str">
+        <v>Soda (x1)</v>
+      </c>
+      <c r="F211">
+        <v>5000</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>V-1771136883459</v>
+      </c>
+      <c r="B212" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C212" t="str">
+        <v>06:28 a. m.</v>
+      </c>
+      <c r="D212" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E212" t="str">
+        <v>Agua Botella Grande (x1)</v>
+      </c>
+      <c r="F212">
+        <v>5000</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>V-1771137585884</v>
+      </c>
+      <c r="B213" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C213" t="str">
+        <v>06:39 a. m.</v>
+      </c>
+      <c r="D213" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E213" t="str">
+        <v>Cerveza Poker (x2)</v>
+      </c>
+      <c r="F213">
+        <v>20000</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>V-1771138326108</v>
+      </c>
+      <c r="B214" t="str">
+        <v>15/2/2026</v>
+      </c>
+      <c r="C214" t="str">
+        <v>06:52 a. m.</v>
+      </c>
+      <c r="D214" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="E214" t="str">
+        <v>Cerveza Club Colombia (x1)</v>
+      </c>
+      <c r="F214">
+        <v>10000</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G214"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/ventas.xlsx
+++ b/data/ventas.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G275"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5324,9 +5324,1412 @@
         <v>1</v>
       </c>
     </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>V-1771620200778</v>
+      </c>
+      <c r="B215" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C215" t="str">
+        <v>08:43 p. m.</v>
+      </c>
+      <c r="D215" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E215" t="str">
+        <v>Cerveza Club Colombia (x2)</v>
+      </c>
+      <c r="F215">
+        <v>20000</v>
+      </c>
+      <c r="G215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>V-1771621744789</v>
+      </c>
+      <c r="B216" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C216" t="str">
+        <v>09:09 p. m.</v>
+      </c>
+      <c r="D216" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E216" t="str">
+        <v>Ginger Canada Dry (x1), Cerveza Poker (x2)</v>
+      </c>
+      <c r="F216">
+        <v>25000</v>
+      </c>
+      <c r="G216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>V-1771623202264</v>
+      </c>
+      <c r="B217" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C217" t="str">
+        <v>09:33 p. m.</v>
+      </c>
+      <c r="D217" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E217" t="str">
+        <v>Cerveza Coronita (x1), Coca Cola (x1), Ron 8 años Media (x1)</v>
+      </c>
+      <c r="F217">
+        <v>103000</v>
+      </c>
+      <c r="G217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>V-1771623871049</v>
+      </c>
+      <c r="B218" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C218" t="str">
+        <v>09:44 p. m.</v>
+      </c>
+      <c r="D218" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E218" t="str">
+        <v>Aguardiente Cristal Caja (x1)</v>
+      </c>
+      <c r="F218">
+        <v>100000</v>
+      </c>
+      <c r="G218">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>V-1771624558547</v>
+      </c>
+      <c r="B219" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C219" t="str">
+        <v>09:55 p. m.</v>
+      </c>
+      <c r="D219" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E219" t="str">
+        <v>Soda (x2)</v>
+      </c>
+      <c r="F219">
+        <v>10000</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>V-1771624660567</v>
+      </c>
+      <c r="B220" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C220" t="str">
+        <v>09:57 p. m.</v>
+      </c>
+      <c r="D220" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E220" t="str">
+        <v>Cerveza Aguila Ligth (x1)</v>
+      </c>
+      <c r="F220">
+        <v>10000</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>V-1771624819087</v>
+      </c>
+      <c r="B221" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C221" t="str">
+        <v>10:00 p. m.</v>
+      </c>
+      <c r="D221" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E221" t="str">
+        <v>Cerveza Poker (x1), Gatorade (x1)</v>
+      </c>
+      <c r="F221">
+        <v>16000</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>V-1771625155165</v>
+      </c>
+      <c r="B222" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C222" t="str">
+        <v>10:05 p. m.</v>
+      </c>
+      <c r="D222" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E222" t="str">
+        <v>Cerveza Poker (x2), Coca Cola (x1)</v>
+      </c>
+      <c r="F222">
+        <v>25000</v>
+      </c>
+      <c r="G222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>V-1771625283412</v>
+      </c>
+      <c r="B223" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C223" t="str">
+        <v>10:07 p. m.</v>
+      </c>
+      <c r="D223" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E223" t="str">
+        <v>Ron 8 años Media (x1)</v>
+      </c>
+      <c r="F223">
+        <v>88000</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>V-1771625308580</v>
+      </c>
+      <c r="B224" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C224" t="str">
+        <v>10:08 p. m.</v>
+      </c>
+      <c r="D224" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E224" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F224">
+        <v>10000</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>V-1771625429067</v>
+      </c>
+      <c r="B225" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C225" t="str">
+        <v>10:10 p. m.</v>
+      </c>
+      <c r="D225" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E225" t="str">
+        <v>Cerveza Corona (x1)</v>
+      </c>
+      <c r="F225">
+        <v>12000</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>V-1771625578171</v>
+      </c>
+      <c r="B226" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C226" t="str">
+        <v>10:12 p. m.</v>
+      </c>
+      <c r="D226" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E226" t="str">
+        <v>Soda (x1)</v>
+      </c>
+      <c r="F226">
+        <v>5000</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>V-1771625756906</v>
+      </c>
+      <c r="B227" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C227" t="str">
+        <v>10:15 p. m.</v>
+      </c>
+      <c r="D227" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E227" t="str">
+        <v>Cerveza Club Colombia (x1), Cerveza Poker (x1)</v>
+      </c>
+      <c r="F227">
+        <v>20000</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>V-1771626131653</v>
+      </c>
+      <c r="B228" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C228" t="str">
+        <v>10:22 p. m.</v>
+      </c>
+      <c r="D228" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E228" t="str">
+        <v>Cerveza Aguila Ligth (x1)</v>
+      </c>
+      <c r="F228">
+        <v>10000</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>V-1771626377744</v>
+      </c>
+      <c r="B229" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C229" t="str">
+        <v>10:26 p. m.</v>
+      </c>
+      <c r="D229" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E229" t="str">
+        <v>Cerveza Poker (x3)</v>
+      </c>
+      <c r="F229">
+        <v>30000</v>
+      </c>
+      <c r="G229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>V-1771626474099</v>
+      </c>
+      <c r="B230" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C230" t="str">
+        <v>10:27 p. m.</v>
+      </c>
+      <c r="D230" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E230" t="str">
+        <v>Cerveza Poker (x1), Coca Cola (x1)</v>
+      </c>
+      <c r="F230">
+        <v>15000</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>V-1771626628089</v>
+      </c>
+      <c r="B231" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C231" t="str">
+        <v>10:30 p. m.</v>
+      </c>
+      <c r="D231" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E231" t="str">
+        <v>Ron Tradicional Cuarto (x1), Soda (x1), Coca Cola (x2)</v>
+      </c>
+      <c r="F231">
+        <v>53000</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>V-1771627040189</v>
+      </c>
+      <c r="B232" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C232" t="str">
+        <v>10:37 p. m.</v>
+      </c>
+      <c r="D232" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E232" t="str">
+        <v>Cerveza Club Colombia (x1)</v>
+      </c>
+      <c r="F232">
+        <v>10000</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>V-1771627197139</v>
+      </c>
+      <c r="B233" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C233" t="str">
+        <v>10:39 p. m.</v>
+      </c>
+      <c r="D233" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E233" t="str">
+        <v>Cerveza Aguila Ligth (x1), Cerveza Poker (x1)</v>
+      </c>
+      <c r="F233">
+        <v>20000</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>V-1771627282490</v>
+      </c>
+      <c r="B234" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C234" t="str">
+        <v>10:41 p. m.</v>
+      </c>
+      <c r="D234" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E234" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F234">
+        <v>10000</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>V-1771627335069</v>
+      </c>
+      <c r="B235" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C235" t="str">
+        <v>10:42 p. m.</v>
+      </c>
+      <c r="D235" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E235" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F235">
+        <v>10000</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>V-1771627541067</v>
+      </c>
+      <c r="B236" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C236" t="str">
+        <v>10:45 p. m.</v>
+      </c>
+      <c r="D236" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E236" t="str">
+        <v>Cerveza Aguila Ligth (x1)</v>
+      </c>
+      <c r="F236">
+        <v>10000</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>V-1771627870120</v>
+      </c>
+      <c r="B237" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C237" t="str">
+        <v>10:51 p. m.</v>
+      </c>
+      <c r="D237" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E237" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F237">
+        <v>10000</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>V-1771628255469</v>
+      </c>
+      <c r="B238" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C238" t="str">
+        <v>10:57 p. m.</v>
+      </c>
+      <c r="D238" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E238" t="str">
+        <v>Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F238">
+        <v>56000</v>
+      </c>
+      <c r="G238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>V-1771628552337</v>
+      </c>
+      <c r="B239" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C239" t="str">
+        <v>11:02 p. m.</v>
+      </c>
+      <c r="D239" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E239" t="str">
+        <v>Cerveza Club Colombia (x2)</v>
+      </c>
+      <c r="F239">
+        <v>20000</v>
+      </c>
+      <c r="G239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>V-1771629503092</v>
+      </c>
+      <c r="B240" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C240" t="str">
+        <v>11:18 p. m.</v>
+      </c>
+      <c r="D240" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E240" t="str">
+        <v>Cerveza Aguila Ligth (x1)</v>
+      </c>
+      <c r="F240">
+        <v>10000</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>V-1771629708416</v>
+      </c>
+      <c r="B241" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C241" t="str">
+        <v>11:21 p. m.</v>
+      </c>
+      <c r="D241" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E241" t="str">
+        <v>Cerveza Poker (x1), Cerveza Aguila Ligth (x1), Cerveza Club Colombia (x1)</v>
+      </c>
+      <c r="F241">
+        <v>30000</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>V-1771630262507</v>
+      </c>
+      <c r="B242" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C242" t="str">
+        <v>11:31 p. m.</v>
+      </c>
+      <c r="D242" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E242" t="str">
+        <v>Gatorade (x1)</v>
+      </c>
+      <c r="F242">
+        <v>6000</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>V-1771630453036</v>
+      </c>
+      <c r="B243" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C243" t="str">
+        <v>11:34 p. m.</v>
+      </c>
+      <c r="D243" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E243" t="str">
+        <v>Cerveza Club Colombia (x1), Coca Cola (x1), Cerveza Poker (x1)</v>
+      </c>
+      <c r="F243">
+        <v>25000</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>V-1771630584618</v>
+      </c>
+      <c r="B244" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C244" t="str">
+        <v>11:36 p. m.</v>
+      </c>
+      <c r="D244" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E244" t="str">
+        <v>Cerveza Aguila Ligth (x1)</v>
+      </c>
+      <c r="F244">
+        <v>10000</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>V-1771630848851</v>
+      </c>
+      <c r="B245" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C245" t="str">
+        <v>11:40 p. m.</v>
+      </c>
+      <c r="D245" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E245" t="str">
+        <v>Cerveza Aguila Ligth (x1), Cerveza Club Colombia (x3)</v>
+      </c>
+      <c r="F245">
+        <v>40000</v>
+      </c>
+      <c r="G245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>V-1771631080539</v>
+      </c>
+      <c r="B246" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C246" t="str">
+        <v>11:44 p. m.</v>
+      </c>
+      <c r="D246" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E246" t="str">
+        <v>Cerveza Poker (x3)</v>
+      </c>
+      <c r="F246">
+        <v>30000</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>V-1771631289468</v>
+      </c>
+      <c r="B247" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C247" t="str">
+        <v>11:48 p. m.</v>
+      </c>
+      <c r="D247" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E247" t="str">
+        <v>Agua Botella Grande (x1)</v>
+      </c>
+      <c r="F247">
+        <v>5000</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>V-1771631304673</v>
+      </c>
+      <c r="B248" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C248" t="str">
+        <v>11:48 p. m.</v>
+      </c>
+      <c r="D248" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E248" t="str">
+        <v>Soda (x1)</v>
+      </c>
+      <c r="F248">
+        <v>5000</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>V-1771631457324</v>
+      </c>
+      <c r="B249" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C249" t="str">
+        <v>11:50 p. m.</v>
+      </c>
+      <c r="D249" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E249" t="str">
+        <v>Cerveza Club Colombia (x2)</v>
+      </c>
+      <c r="F249">
+        <v>20000</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>V-1771631476655</v>
+      </c>
+      <c r="B250" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C250" t="str">
+        <v>11:51 p. m.</v>
+      </c>
+      <c r="D250" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E250" t="str">
+        <v>Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F250">
+        <v>56000</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>V-1771631807841</v>
+      </c>
+      <c r="B251" t="str">
+        <v>20/2/2026</v>
+      </c>
+      <c r="C251" t="str">
+        <v>11:56 p. m.</v>
+      </c>
+      <c r="D251" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E251" t="str">
+        <v>Cerveza Club Colombia (x1)</v>
+      </c>
+      <c r="F251">
+        <v>10000</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>V-1771632027344</v>
+      </c>
+      <c r="B252" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C252" t="str">
+        <v>12:00 a. m.</v>
+      </c>
+      <c r="D252" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E252" t="str">
+        <v>Cerveza Poker (x1), Coca Cola (x1), Agua Botella Grande (x1)</v>
+      </c>
+      <c r="F252">
+        <v>20000</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>V-1771632755291</v>
+      </c>
+      <c r="B253" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C253" t="str">
+        <v>12:12 a. m.</v>
+      </c>
+      <c r="D253" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E253" t="str">
+        <v>Cerveza Poker (x2)</v>
+      </c>
+      <c r="F253">
+        <v>20000</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>V-1771632966957</v>
+      </c>
+      <c r="B254" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C254" t="str">
+        <v>12:16 a. m.</v>
+      </c>
+      <c r="D254" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E254" t="str">
+        <v>Soda (x1)</v>
+      </c>
+      <c r="F254">
+        <v>5000</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>V-1771633187081</v>
+      </c>
+      <c r="B255" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C255" t="str">
+        <v>12:19 a. m.</v>
+      </c>
+      <c r="D255" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E255" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F255">
+        <v>10000</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>V-1771633428384</v>
+      </c>
+      <c r="B256" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C256" t="str">
+        <v>12:23 a. m.</v>
+      </c>
+      <c r="D256" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E256" t="str">
+        <v>Cerveza Aguila Ligth (x1)</v>
+      </c>
+      <c r="F256">
+        <v>10000</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>V-1771633848881</v>
+      </c>
+      <c r="B257" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C257" t="str">
+        <v>12:30 a. m.</v>
+      </c>
+      <c r="D257" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E257" t="str">
+        <v>Cerveza Aguila Ligth (x1)</v>
+      </c>
+      <c r="F257">
+        <v>10000</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>V-1771633980384</v>
+      </c>
+      <c r="B258" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C258" t="str">
+        <v>12:33 a. m.</v>
+      </c>
+      <c r="D258" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E258" t="str">
+        <v>Cerveza Poker (x3)</v>
+      </c>
+      <c r="F258">
+        <v>30000</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>V-1771634209384</v>
+      </c>
+      <c r="B259" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C259" t="str">
+        <v>12:36 a. m.</v>
+      </c>
+      <c r="D259" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E259" t="str">
+        <v>Cerveza Poker (x2), Coca Cola (x1)</v>
+      </c>
+      <c r="F259">
+        <v>25000</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>V-1771634380115</v>
+      </c>
+      <c r="B260" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C260" t="str">
+        <v>12:39 a. m.</v>
+      </c>
+      <c r="D260" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E260" t="str">
+        <v>Cerveza Club Colombia (x2), Cerveza Poker (x1)</v>
+      </c>
+      <c r="F260">
+        <v>30000</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>V-1771634452191</v>
+      </c>
+      <c r="B261" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C261" t="str">
+        <v>12:40 a. m.</v>
+      </c>
+      <c r="D261" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E261" t="str">
+        <v>Soda (x1)</v>
+      </c>
+      <c r="F261">
+        <v>5000</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>V-1771634467883</v>
+      </c>
+      <c r="B262" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C262" t="str">
+        <v>12:41 a. m.</v>
+      </c>
+      <c r="D262" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E262" t="str">
+        <v>Cerveza Poker (x3)</v>
+      </c>
+      <c r="F262">
+        <v>30000</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>V-1771634610847</v>
+      </c>
+      <c r="B263" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C263" t="str">
+        <v>12:43 a. m.</v>
+      </c>
+      <c r="D263" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E263" t="str">
+        <v>Cerveza Club Colombia (x1), Cerveza Poker (x2), Cerveza Corona (x1)</v>
+      </c>
+      <c r="F263">
+        <v>42000</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>V-1771634907402</v>
+      </c>
+      <c r="B264" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C264" t="str">
+        <v>12:48 a. m.</v>
+      </c>
+      <c r="D264" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E264" t="str">
+        <v>Aguardiente Cristal Cuarto (x1)</v>
+      </c>
+      <c r="F264">
+        <v>36000</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>V-1771636180335</v>
+      </c>
+      <c r="B265" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C265" t="str">
+        <v>01:09 a. m.</v>
+      </c>
+      <c r="D265" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E265" t="str">
+        <v>Aguardiente Ligth Cuarto (x1)</v>
+      </c>
+      <c r="F265">
+        <v>36000</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>V-1771636940378</v>
+      </c>
+      <c r="B266" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C266" t="str">
+        <v>01:22 a. m.</v>
+      </c>
+      <c r="D266" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E266" t="str">
+        <v>Cerveza Poker (x3)</v>
+      </c>
+      <c r="F266">
+        <v>30000</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>V-1771637537458</v>
+      </c>
+      <c r="B267" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C267" t="str">
+        <v>01:32 a. m.</v>
+      </c>
+      <c r="D267" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E267" t="str">
+        <v>Cerveza Poker (x3)</v>
+      </c>
+      <c r="F267">
+        <v>30000</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>V-1771639183930</v>
+      </c>
+      <c r="B268" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C268" t="str">
+        <v>01:59 a. m.</v>
+      </c>
+      <c r="D268" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E268" t="str">
+        <v>Cerveza Poker (x3)</v>
+      </c>
+      <c r="F268">
+        <v>30000</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>V-1771639390539</v>
+      </c>
+      <c r="B269" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C269" t="str">
+        <v>02:03 a. m.</v>
+      </c>
+      <c r="D269" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E269" t="str">
+        <v>Cerveza Poker (x1)</v>
+      </c>
+      <c r="F269">
+        <v>10000</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>V-1771639954031</v>
+      </c>
+      <c r="B270" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C270" t="str">
+        <v>02:12 a. m.</v>
+      </c>
+      <c r="D270" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="E270" t="str">
+        <v>Cerveza Aguila Ligth (x1)</v>
+      </c>
+      <c r="F270">
+        <v>10000</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>V-1771640528041</v>
+      </c>
+      <c r="B271" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C271" t="str">
+        <v>02:22 a. m.</v>
+      </c>
+      <c r="D271" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E271" t="str">
+        <v>Cerveza Aguila Ligth (x1), Cerveza Club Colombia (x1)</v>
+      </c>
+      <c r="F271">
+        <v>20000</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>V-1771641444026</v>
+      </c>
+      <c r="B272" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C272" t="str">
+        <v>02:37 a. m.</v>
+      </c>
+      <c r="D272" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E272" t="str">
+        <v>Cerveza Club Colombia (x3)</v>
+      </c>
+      <c r="F272">
+        <v>30000</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>V-1771641652308</v>
+      </c>
+      <c r="B273" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C273" t="str">
+        <v>02:40 a. m.</v>
+      </c>
+      <c r="D273" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E273" t="str">
+        <v>Cerveza Club Colombia (x3)</v>
+      </c>
+      <c r="F273">
+        <v>30000</v>
+      </c>
+      <c r="G273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>V-1771642158520</v>
+      </c>
+      <c r="B274" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C274" t="str">
+        <v>02:49 a. m.</v>
+      </c>
+      <c r="D274" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E274" t="str">
+        <v>Soda (x1), Ron 5 años Media (x1)</v>
+      </c>
+      <c r="F274">
+        <v>83000</v>
+      </c>
+      <c r="G274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>V-1771643153632</v>
+      </c>
+      <c r="B275" t="str">
+        <v>21/2/2026</v>
+      </c>
+      <c r="C275" t="str">
+        <v>03:05 a. m.</v>
+      </c>
+      <c r="D275" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="E275" t="str">
+        <v>Aguardiente Ligth Media (x1)</v>
+      </c>
+      <c r="F275">
+        <v>56000</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G214"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G275"/>
   </ignoredErrors>
 </worksheet>
 </file>